--- a/report.xlsx
+++ b/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="80" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="5420" yWindow="1820" windowWidth="25600" windowHeight="16220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,14 +77,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,20 +423,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10">
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:9">
+      <c r="E1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
       <c r="B2">
         <v>0.342148760331</v>
       </c>
@@ -424,7 +459,7 @@
         <v>0.74214876033099997</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:10">
       <c r="B3">
         <v>0.352233676976</v>
       </c>
@@ -444,7 +479,7 @@
         <v>0.87972508591099996</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>0.43243243243200002</v>
       </c>
@@ -464,7 +499,7 @@
         <v>0.88620199146500001</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>0.34719334719299999</v>
       </c>
@@ -484,7 +519,7 @@
         <v>0.91268191268200005</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>0.42366863905300001</v>
       </c>
@@ -504,7 +539,7 @@
         <v>0.86627218934899997</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>0.33960176991199997</v>
       </c>
@@ -524,7 +559,7 @@
         <v>0.82632743362799999</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>0.27564102564100001</v>
       </c>
@@ -544,7 +579,7 @@
         <v>0.884615384615</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>0.42150170648500002</v>
       </c>
@@ -564,7 +599,7 @@
         <v>0.86860068259400003</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:10">
       <c r="B10">
         <v>0.33501683501700003</v>
       </c>
@@ -584,7 +619,7 @@
         <v>0.85858585858600001</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:10">
       <c r="B11">
         <v>0.32568807339400002</v>
       </c>
@@ -603,17 +638,233 @@
       <c r="I11">
         <v>0.86123853211000001</v>
       </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="1">
-        <v>9.960358796296297E-3</v>
+      <c r="J11">
+        <f>AVERAGE(I2:I11)</f>
+        <v>0.85863978312709999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.86163098623379997</v>
+      </c>
+      <c r="E12" s="2">
+        <f>AVERAGE(E2:E11)</f>
+        <v>0.46143287164359997</v>
+      </c>
+      <c r="F12" s="2">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.94386255342270009</v>
+      </c>
+      <c r="H12" s="2">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.36025974450549991</v>
       </c>
       <c r="I12" s="1">
         <v>1.0479791666666667E-2</v>
       </c>
     </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.3595126266434</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="1">
+        <v>9.960358796296297E-3</v>
+      </c>
+      <c r="E15">
+        <v>0.456202531646</v>
+      </c>
+      <c r="F15">
+        <v>0.89164556961999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="E16">
+        <v>0.46430644225200002</v>
+      </c>
+      <c r="F16">
+        <v>0.94196169471900004</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17">
+        <v>0.477566539924</v>
+      </c>
+      <c r="F17">
+        <v>0.93384030418300001</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18">
+        <v>0.45610687022899998</v>
+      </c>
+      <c r="F18">
+        <v>0.91857506361300001</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19">
+        <v>0.46140939597300001</v>
+      </c>
+      <c r="F19">
+        <v>0.93791946308700003</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20">
+        <v>0.39653035935600001</v>
+      </c>
+      <c r="F20">
+        <v>0.91945477075600002</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21">
+        <v>0.44887640449400001</v>
+      </c>
+      <c r="F21">
+        <v>0.93146067415699996</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22">
+        <v>0.50387596899200005</v>
+      </c>
+      <c r="F22">
+        <v>0.95116279069800003</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23">
+        <v>0.45387994143499999</v>
+      </c>
+      <c r="F23">
+        <v>0.92825768667599995</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24">
+        <v>0.45500633713600003</v>
+      </c>
+      <c r="F24">
+        <v>0.92015209125499997</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="2">
+        <f>AVERAGE(E15:E24)</f>
+        <v>0.45737607914369993</v>
+      </c>
+      <c r="F25" s="2">
+        <f>AVERAGE(F15:F24)</f>
+        <v>0.92744301087639991</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28">
+        <v>0.42531645569600002</v>
+      </c>
+      <c r="F28">
+        <v>0.90886075949400003</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29">
+        <v>0.49970980847399998</v>
+      </c>
+      <c r="F29">
+        <v>0.95356935577500002</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30">
+        <v>0.47148288973399999</v>
+      </c>
+      <c r="F30">
+        <v>0.95361216729999998</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31">
+        <v>0.484732824427</v>
+      </c>
+      <c r="F31">
+        <v>0.94656488549600004</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32">
+        <v>0.48825503355700001</v>
+      </c>
+      <c r="F32">
+        <v>0.96420581655500004</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33">
+        <v>0.41945477075600002</v>
+      </c>
+      <c r="F33">
+        <v>0.94052044609700003</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34">
+        <v>0.46629213483100002</v>
+      </c>
+      <c r="F34">
+        <v>0.95168539325799995</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35">
+        <v>0.51782945736399999</v>
+      </c>
+      <c r="F35">
+        <v>0.95891472868200001</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36">
+        <v>0.47803806734999998</v>
+      </c>
+      <c r="F36">
+        <v>0.95021961932700005</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37">
+        <v>0.43599493029199998</v>
+      </c>
+      <c r="F37">
+        <v>0.94550063371399995</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" s="2">
+        <f>AVERAGE(E28:E37)</f>
+        <v>0.46871063724809997</v>
+      </c>
+      <c r="F38" s="2">
+        <f>AVERAGE(F28:F37)</f>
+        <v>0.9473653805697998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="1820" windowWidth="25600" windowHeight="16220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>method 2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m1</t>
   </si>
 </sst>
 </file>
@@ -423,23 +429,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:10">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2">
         <v>0.342148760331</v>
       </c>
@@ -459,7 +471,7 @@
         <v>0.74214876033099997</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>0.352233676976</v>
       </c>
@@ -479,7 +491,7 @@
         <v>0.87972508591099996</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>0.43243243243200002</v>
       </c>
@@ -499,7 +511,7 @@
         <v>0.88620199146500001</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>0.34719334719299999</v>
       </c>
@@ -519,7 +531,7 @@
         <v>0.91268191268200005</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>0.42366863905300001</v>
       </c>
@@ -539,7 +551,7 @@
         <v>0.86627218934899997</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7">
         <v>0.33960176991199997</v>
       </c>
@@ -559,7 +571,7 @@
         <v>0.82632743362799999</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>0.27564102564100001</v>
       </c>
@@ -579,7 +591,7 @@
         <v>0.884615384615</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>0.42150170648500002</v>
       </c>
@@ -599,7 +611,7 @@
         <v>0.86860068259400003</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:10">
       <c r="B10">
         <v>0.33501683501700003</v>
       </c>
@@ -619,7 +631,7 @@
         <v>0.85858585858600001</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="B11">
         <v>0.32568807339400002</v>
       </c>
@@ -643,7 +655,7 @@
         <v>0.85863978312709999</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:10">
       <c r="B12" s="1"/>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -665,7 +677,7 @@
         <v>1.0479791666666667E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
       <c r="B14" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.3595126266434</v>
@@ -674,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" s="1">
         <v>9.960358796296297E-3</v>
       </c>
@@ -685,7 +697,7 @@
         <v>0.89164556961999997</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="1:10">
       <c r="E16">
         <v>0.46430644225200002</v>
       </c>

--- a/report.xlsx
+++ b/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5220" yWindow="800" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>method 2</t>
   </si>
@@ -27,14 +27,20 @@
     <t>m3</t>
   </si>
   <si>
-    <t>m1</t>
+    <t>User Based</t>
+  </si>
+  <si>
+    <t>Test Mehod 1</t>
+  </si>
+  <si>
+    <t>Test Method 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,6 +71,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,10 +101,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -105,6 +119,254 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory-based based on vector similarity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Mehod 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.336248695015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.352000299742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.431802890945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.360258946559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37385587634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36199857939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.342244844385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.378630060818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.344886463226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.359177936978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Method 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.825285617411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.859745522236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.880822950728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.881831590398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.858787213659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.827301693401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.892093092444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.870560434341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.861999265389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.847565289689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2143497352"/>
+        <c:axId val="-2145882536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2143497352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145882536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2145882536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143497352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,23 +691,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -453,225 +725,225 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2">
-        <v>0.342148760331</v>
+        <v>0.33624869501499999</v>
       </c>
       <c r="C2">
-        <v>0.740495867769</v>
+        <v>0.82528561741100004</v>
       </c>
       <c r="E2">
-        <v>0.43898734177199999</v>
+        <v>0.482737389919</v>
       </c>
       <c r="F2">
-        <v>0.90835443037999997</v>
+        <v>0.91170956232400002</v>
       </c>
       <c r="H2">
-        <v>0.33636363636400002</v>
+        <v>0.31104050254999999</v>
       </c>
       <c r="I2">
-        <v>0.74214876033099997</v>
+        <v>0.82007213590100003</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3">
-        <v>0.352233676976</v>
+        <v>0.35200029974199998</v>
       </c>
       <c r="C3">
-        <v>0.89003436426100002</v>
+        <v>0.85974552223599998</v>
       </c>
       <c r="E3">
-        <v>0.47881601857200001</v>
+        <v>0.45112208920500002</v>
       </c>
       <c r="F3">
-        <v>0.95182820661599998</v>
+        <v>0.92217898945400001</v>
       </c>
       <c r="H3">
-        <v>0.35051546391799998</v>
+        <v>0.342034645049</v>
       </c>
       <c r="I3">
-        <v>0.87972508591099996</v>
+        <v>0.85743162331099998</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4">
-        <v>0.43243243243200002</v>
+        <v>0.43180289094500002</v>
       </c>
       <c r="C4">
-        <v>0.887624466572</v>
+        <v>0.88082295072799999</v>
       </c>
       <c r="E4">
-        <v>0.47300380228099997</v>
+        <v>0.48951122091400001</v>
       </c>
       <c r="F4">
-        <v>0.95057034220500003</v>
+        <v>0.93535194584199999</v>
       </c>
       <c r="H4">
-        <v>0.41963015647200003</v>
+        <v>0.42160702804700001</v>
       </c>
       <c r="I4">
-        <v>0.88620199146500001</v>
+        <v>0.87802923805900002</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5">
-        <v>0.34719334719299999</v>
+        <v>0.36025894655899998</v>
       </c>
       <c r="C5">
-        <v>0.91060291060300003</v>
+        <v>0.88183159039799996</v>
       </c>
       <c r="E5">
-        <v>0.46564885496199998</v>
+        <v>0.473725403411</v>
       </c>
       <c r="F5">
-        <v>0.93893129770999995</v>
+        <v>0.92323388114500005</v>
       </c>
       <c r="H5">
-        <v>0.34927234927200002</v>
+        <v>0.36325417037399998</v>
       </c>
       <c r="I5">
-        <v>0.91268191268200005</v>
+        <v>0.88291060322000003</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6">
-        <v>0.42366863905300001</v>
+        <v>0.37385587634</v>
       </c>
       <c r="C6">
-        <v>0.87573964497000001</v>
+        <v>0.85878721365900001</v>
       </c>
       <c r="E6">
-        <v>0.48098434004500001</v>
+        <v>0.47550905571800001</v>
       </c>
       <c r="F6">
-        <v>0.95693512304299999</v>
+        <v>0.93110930510400003</v>
       </c>
       <c r="H6">
-        <v>0.42485207100599998</v>
+        <v>0.38039922919800001</v>
       </c>
       <c r="I6">
-        <v>0.86627218934899997</v>
+        <v>0.84769719717699998</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7">
-        <v>0.33960176991199997</v>
+        <v>0.36199857939000002</v>
       </c>
       <c r="C7">
-        <v>0.82079646017700003</v>
+        <v>0.82730169340100002</v>
       </c>
       <c r="E7">
-        <v>0.41325898389100002</v>
+        <v>0.43463219192500002</v>
       </c>
       <c r="F7">
-        <v>0.94175960346999998</v>
+        <v>0.93226897489000005</v>
       </c>
       <c r="H7">
-        <v>0.34513274336299998</v>
+        <v>0.35499082693200001</v>
       </c>
       <c r="I7">
-        <v>0.82632743362799999</v>
+        <v>0.83302411974099999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8">
-        <v>0.27564102564100001</v>
+        <v>0.34224484438500002</v>
       </c>
       <c r="C8">
-        <v>0.87820512820499996</v>
+        <v>0.89209309244400004</v>
       </c>
       <c r="E8">
-        <v>0.45393258426999999</v>
+        <v>0.45031936922499999</v>
       </c>
       <c r="F8">
-        <v>0.94887640449400001</v>
+        <v>0.93029073799899997</v>
       </c>
       <c r="H8">
-        <v>0.282051282051</v>
+        <v>0.34920586324199998</v>
       </c>
       <c r="I8">
-        <v>0.884615384615</v>
+        <v>0.89331109234499995</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9">
-        <v>0.42150170648500002</v>
+        <v>0.37863006081799999</v>
       </c>
       <c r="C9">
-        <v>0.88395904436899997</v>
+        <v>0.87056043434099994</v>
       </c>
       <c r="E9">
-        <v>0.497674418605</v>
+        <v>0.462030573123</v>
       </c>
       <c r="F9">
-        <v>0.95968992248100005</v>
+        <v>0.94126618107000004</v>
       </c>
       <c r="H9">
-        <v>0.41296928327600002</v>
+        <v>0.37151524702299998</v>
       </c>
       <c r="I9">
-        <v>0.86860068259400003</v>
+        <v>0.86690009793400002</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10">
-        <v>0.33501683501700003</v>
+        <v>0.34488646322599997</v>
       </c>
       <c r="C10">
-        <v>0.86531986532000005</v>
+        <v>0.86199926538899996</v>
       </c>
       <c r="E10">
-        <v>0.467789165447</v>
+        <v>0.46759867656800003</v>
       </c>
       <c r="F10">
-        <v>0.94948755490500003</v>
+        <v>0.93061974402900005</v>
       </c>
       <c r="H10">
-        <v>0.34006734006700001</v>
+        <v>0.357641492974</v>
       </c>
       <c r="I10">
-        <v>0.85858585858600001</v>
+        <v>0.85206388826599999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11">
-        <v>0.32568807339400002</v>
+        <v>0.35917793697799999</v>
       </c>
       <c r="C11">
-        <v>0.86353211009200004</v>
+        <v>0.84756528968900002</v>
       </c>
       <c r="E11">
-        <v>0.44423320659100002</v>
+        <v>0.44068612757300002</v>
       </c>
       <c r="F11">
-        <v>0.93219264892300002</v>
+        <v>0.91210461442500002</v>
       </c>
       <c r="H11">
-        <v>0.34174311926599998</v>
+        <v>0.374022140143</v>
       </c>
       <c r="I11">
-        <v>0.86123853211000001</v>
+        <v>0.84758353172300005</v>
       </c>
       <c r="J11">
         <f>AVERAGE(I2:I11)</f>
-        <v>0.85863978312709999</v>
+        <v>0.85790235276769999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1"/>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C11)</f>
-        <v>0.86163098623379997</v>
+        <v>0.86059926696959987</v>
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>0.46143287164359997</v>
+        <v>0.4627872097581</v>
       </c>
       <c r="F12" s="2">
         <f>AVERAGE(F2:F11)</f>
-        <v>0.94386255342270009</v>
+        <v>0.92701339362820012</v>
       </c>
       <c r="H12" s="2">
         <f>AVERAGE(H2:H11)</f>
-        <v>0.36025974450549991</v>
+        <v>0.36257111455320001</v>
       </c>
       <c r="I12" s="1">
         <v>1.0479791666666667E-2</v>
@@ -680,10 +952,10 @@
     <row r="14" spans="1:10">
       <c r="B14" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>0.3595126266434</v>
+        <v>0.36411045933980002</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -691,92 +963,92 @@
         <v>9.960358796296297E-3</v>
       </c>
       <c r="E15">
-        <v>0.456202531646</v>
+        <v>0.47558682885699999</v>
       </c>
       <c r="F15">
-        <v>0.89164556961999997</v>
+        <v>0.92671846490099996</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="E16">
-        <v>0.46430644225200002</v>
+        <v>0.46463009482899997</v>
       </c>
       <c r="F16">
-        <v>0.94196169471900004</v>
+        <v>0.92510123561099999</v>
       </c>
     </row>
     <row r="17" spans="5:6">
       <c r="E17">
-        <v>0.477566539924</v>
+        <v>0.48024196271800002</v>
       </c>
       <c r="F17">
-        <v>0.93384030418300001</v>
+        <v>0.941407151981</v>
       </c>
     </row>
     <row r="18" spans="5:6">
       <c r="E18">
-        <v>0.45610687022899998</v>
+        <v>0.45728030879300002</v>
       </c>
       <c r="F18">
-        <v>0.91857506361300001</v>
+        <v>0.93624585990300002</v>
       </c>
     </row>
     <row r="19" spans="5:6">
       <c r="E19">
-        <v>0.46140939597300001</v>
+        <v>0.47342282756600002</v>
       </c>
       <c r="F19">
-        <v>0.93791946308700003</v>
+        <v>0.94476814624399996</v>
       </c>
     </row>
     <row r="20" spans="5:6">
       <c r="E20">
-        <v>0.39653035935600001</v>
+        <v>0.440652174939</v>
       </c>
       <c r="F20">
-        <v>0.91945477075600002</v>
+        <v>0.94361452392099998</v>
       </c>
     </row>
     <row r="21" spans="5:6">
       <c r="E21">
-        <v>0.44887640449400001</v>
+        <v>0.47500591414499999</v>
       </c>
       <c r="F21">
-        <v>0.93146067415699996</v>
+        <v>0.94546522830500002</v>
       </c>
     </row>
     <row r="22" spans="5:6">
       <c r="E22">
-        <v>0.50387596899200005</v>
+        <v>0.44430069802099997</v>
       </c>
       <c r="F22">
-        <v>0.95116279069800003</v>
+        <v>0.95275135675300004</v>
       </c>
     </row>
     <row r="23" spans="5:6">
       <c r="E23">
-        <v>0.45387994143499999</v>
+        <v>0.48419286585499999</v>
       </c>
       <c r="F23">
-        <v>0.92825768667599995</v>
+        <v>0.95196336700600004</v>
       </c>
     </row>
     <row r="24" spans="5:6">
       <c r="E24">
-        <v>0.45500633713600003</v>
+        <v>0.42760346226099999</v>
       </c>
       <c r="F24">
-        <v>0.92015209125499997</v>
+        <v>0.919744236893</v>
       </c>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="2">
         <f>AVERAGE(E15:E24)</f>
-        <v>0.45737607914369993</v>
+        <v>0.46229171379839995</v>
       </c>
       <c r="F25" s="2">
         <f>AVERAGE(F15:F24)</f>
-        <v>0.92744301087639991</v>
+        <v>0.9387779571517999</v>
       </c>
     </row>
     <row r="27" spans="5:6">
@@ -786,97 +1058,193 @@
     </row>
     <row r="28" spans="5:6">
       <c r="E28">
-        <v>0.42531645569600002</v>
+        <v>0.452204625034</v>
       </c>
       <c r="F28">
-        <v>0.90886075949400003</v>
+        <v>0.92392477170800003</v>
       </c>
     </row>
     <row r="29" spans="5:6">
       <c r="E29">
-        <v>0.49970980847399998</v>
+        <v>0.46826202261200001</v>
       </c>
       <c r="F29">
-        <v>0.95356935577500002</v>
+        <v>0.92589016567600002</v>
       </c>
     </row>
     <row r="30" spans="5:6">
       <c r="E30">
-        <v>0.47148288973399999</v>
+        <v>0.48051754156799997</v>
       </c>
       <c r="F30">
-        <v>0.95361216729999998</v>
+        <v>0.94409264614800004</v>
       </c>
     </row>
     <row r="31" spans="5:6">
       <c r="E31">
-        <v>0.484732824427</v>
+        <v>0.46678911036699999</v>
       </c>
       <c r="F31">
-        <v>0.94656488549600004</v>
+        <v>0.93701726559999998</v>
       </c>
     </row>
     <row r="32" spans="5:6">
       <c r="E32">
-        <v>0.48825503355700001</v>
+        <v>0.479902407792</v>
       </c>
       <c r="F32">
-        <v>0.96420581655500004</v>
+        <v>0.95212441833200001</v>
       </c>
     </row>
     <row r="33" spans="5:6">
       <c r="E33">
-        <v>0.41945477075600002</v>
+        <v>0.44259443001499998</v>
       </c>
       <c r="F33">
-        <v>0.94052044609700003</v>
+        <v>0.93983764613300003</v>
       </c>
     </row>
     <row r="34" spans="5:6">
       <c r="E34">
-        <v>0.46629213483100002</v>
+        <v>0.46786229157499998</v>
       </c>
       <c r="F34">
-        <v>0.95168539325799995</v>
+        <v>0.94197434347099995</v>
       </c>
     </row>
     <row r="35" spans="5:6">
       <c r="E35">
-        <v>0.51782945736399999</v>
+        <v>0.456420281659</v>
       </c>
       <c r="F35">
-        <v>0.95891472868200001</v>
+        <v>0.94596210583700002</v>
       </c>
     </row>
     <row r="36" spans="5:6">
       <c r="E36">
-        <v>0.47803806734999998</v>
+        <v>0.48033868776900002</v>
       </c>
       <c r="F36">
-        <v>0.95021961932700005</v>
+        <v>0.94737417401500001</v>
       </c>
     </row>
     <row r="37" spans="5:6">
       <c r="E37">
-        <v>0.43599493029199998</v>
+        <v>0.41934608437900001</v>
       </c>
       <c r="F37">
-        <v>0.94550063371399995</v>
+        <v>0.93101874030300003</v>
       </c>
     </row>
     <row r="38" spans="5:6">
       <c r="E38" s="2">
         <f>AVERAGE(E28:E37)</f>
-        <v>0.46871063724809997</v>
+        <v>0.461423748277</v>
       </c>
       <c r="F38" s="2">
         <f>AVERAGE(F28:F37)</f>
-        <v>0.9473653805697998</v>
+        <v>0.93892162772229992</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" ht="17">
+      <c r="E40" s="3">
+        <v>0.417721518987</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.91746835442999997</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" ht="17">
+      <c r="E41" s="3">
+        <v>0.497388276262</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.95473012187999995</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" ht="17">
+      <c r="E42" s="3">
+        <v>0.477566539924</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.94600760456300004</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" ht="17">
+      <c r="E43" s="3">
+        <v>0.47455470737900002</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.948473282443</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" ht="17">
+      <c r="E44" s="3">
+        <v>0.49608501118600001</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.96364653243800003</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" ht="17">
+      <c r="E45" s="3">
+        <v>0.41759603469599998</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.94299876084300005</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" ht="17">
+      <c r="E46" s="3">
+        <v>0.47977528089900001</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.94775280898900005</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" ht="17">
+      <c r="E47" s="3">
+        <v>0.49844961240300001</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.95813953488400005</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" ht="17">
+      <c r="E48" s="3">
+        <v>0.48389458272300001</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.94289897510999998</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" ht="17">
+      <c r="E49" s="3">
+        <v>0.42648922686899998</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.94803548795899995</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="2">
+        <f>AVERAGE(E40:E49)</f>
+        <v>0.46695207913280001</v>
+      </c>
+      <c r="F50" s="2">
+        <f>AVERAGE(F40:F49)</f>
+        <v>0.94701514635390005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
